--- a/双十二书单.xlsx
+++ b/双十二书单.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAD416A-623B-4F92-9B8F-559F9136468C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="75">
   <si>
     <t>《花卉圣经》</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -323,7 +324,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -641,11 +642,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -810,6 +811,9 @@
       <c r="D11" t="s">
         <v>14</v>
       </c>
+      <c r="E11">
+        <v>8.3000000000000007</v>
+      </c>
       <c r="F11">
         <v>3</v>
       </c>
@@ -821,6 +825,9 @@
       <c r="D12" t="s">
         <v>22</v>
       </c>
+      <c r="E12">
+        <v>8.6</v>
+      </c>
       <c r="F12">
         <v>6</v>
       </c>
@@ -835,6 +842,9 @@
       <c r="D13" t="s">
         <v>25</v>
       </c>
+      <c r="E13">
+        <v>9</v>
+      </c>
       <c r="F13">
         <v>4</v>
       </c>
@@ -846,6 +856,9 @@
       <c r="D14" t="s">
         <v>12</v>
       </c>
+      <c r="E14">
+        <v>8.6999999999999993</v>
+      </c>
       <c r="F14">
         <v>8</v>
       </c>
@@ -854,6 +867,9 @@
       <c r="C15" t="s">
         <v>26</v>
       </c>
+      <c r="E15">
+        <v>8.1999999999999993</v>
+      </c>
       <c r="F15">
         <v>6</v>
       </c>
@@ -865,6 +881,9 @@
       <c r="D16" t="s">
         <v>22</v>
       </c>
+      <c r="E16">
+        <v>8.6</v>
+      </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
@@ -873,6 +892,9 @@
       <c r="D17" t="s">
         <v>25</v>
       </c>
+      <c r="E17">
+        <v>7.2</v>
+      </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
@@ -881,6 +903,9 @@
       <c r="D18" t="s">
         <v>25</v>
       </c>
+      <c r="E18">
+        <v>8.6</v>
+      </c>
       <c r="F18">
         <v>5</v>
       </c>
@@ -892,6 +917,9 @@
       <c r="D19" t="s">
         <v>25</v>
       </c>
+      <c r="E19">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
@@ -900,6 +928,9 @@
       <c r="D20" t="s">
         <v>22</v>
       </c>
+      <c r="E20">
+        <v>9</v>
+      </c>
       <c r="F20">
         <v>2</v>
       </c>
@@ -911,6 +942,9 @@
       <c r="D21" t="s">
         <v>22</v>
       </c>
+      <c r="E21">
+        <v>9.1</v>
+      </c>
       <c r="F21">
         <v>2</v>
       </c>
@@ -922,6 +956,9 @@
       <c r="D22" t="s">
         <v>22</v>
       </c>
+      <c r="E22">
+        <v>8.8000000000000007</v>
+      </c>
       <c r="F22">
         <v>2</v>
       </c>
@@ -933,6 +970,9 @@
       <c r="D23" t="s">
         <v>22</v>
       </c>
+      <c r="E23">
+        <v>9.4</v>
+      </c>
       <c r="F23">
         <v>6</v>
       </c>
@@ -944,6 +984,9 @@
       <c r="D24" t="s">
         <v>21</v>
       </c>
+      <c r="E24">
+        <v>9.3000000000000007</v>
+      </c>
       <c r="F24">
         <v>6</v>
       </c>
@@ -955,6 +998,9 @@
       <c r="D25" t="s">
         <v>22</v>
       </c>
+      <c r="E25">
+        <v>9.1999999999999993</v>
+      </c>
       <c r="F25">
         <v>4</v>
       </c>
@@ -966,6 +1012,9 @@
       <c r="D26" t="s">
         <v>9</v>
       </c>
+      <c r="E26">
+        <v>9.1</v>
+      </c>
       <c r="F26">
         <v>4</v>
       </c>
@@ -977,6 +1026,9 @@
       <c r="D27" t="s">
         <v>9</v>
       </c>
+      <c r="E27">
+        <v>8.8000000000000007</v>
+      </c>
       <c r="F27">
         <v>3</v>
       </c>
@@ -985,6 +1037,12 @@
       <c r="C28" t="s">
         <v>41</v>
       </c>
+      <c r="D28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28">
+        <v>8.1</v>
+      </c>
       <c r="F28">
         <v>3</v>
       </c>
@@ -993,6 +1051,12 @@
       <c r="C29" t="s">
         <v>42</v>
       </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29">
+        <v>8.6</v>
+      </c>
       <c r="F29">
         <v>3</v>
       </c>
@@ -1001,11 +1065,26 @@
       <c r="C30" t="s">
         <v>43</v>
       </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30">
+        <v>7.6</v>
+      </c>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
         <v>44</v>
       </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31">
+        <v>9.1</v>
+      </c>
+      <c r="F31">
+        <v>7</v>
+      </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
@@ -1014,6 +1093,9 @@
       <c r="D32" t="s">
         <v>9</v>
       </c>
+      <c r="E32">
+        <v>8.4</v>
+      </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
@@ -1022,6 +1104,9 @@
       <c r="D33" t="s">
         <v>25</v>
       </c>
+      <c r="E33">
+        <v>7.3</v>
+      </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
@@ -1030,6 +1115,9 @@
       <c r="D34" t="s">
         <v>25</v>
       </c>
+      <c r="E34">
+        <v>8.4</v>
+      </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
@@ -1038,6 +1126,9 @@
       <c r="D35" t="s">
         <v>13</v>
       </c>
+      <c r="E35">
+        <v>8.3000000000000007</v>
+      </c>
       <c r="F35">
         <v>9</v>
       </c>
@@ -1048,6 +1139,9 @@
       </c>
       <c r="D36" t="s">
         <v>14</v>
+      </c>
+      <c r="E36">
+        <v>8.3000000000000007</v>
       </c>
       <c r="F36">
         <v>5</v>
